--- a/medicine/Enfance/Chien-de-la-lune/Chien-de-la-lune.xlsx
+++ b/medicine/Enfance/Chien-de-la-lune/Chien-de-la-lune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chien-de-la-lune est un roman de science-fiction d'Erik L'Homme. Il s'agit du premier tome de la trilogie Les Maîtres des brisants. Il a été publié par Gallimard, le 4 mars 2003.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le système stellaire de Drasill, dernier système stellaire viable de la Galaxie d'Eridan, deux puissances se font face: l'Empire Comtal de Nifhell, dirigé par les Généraux-Comtes, puissance dominante du système; et le Khanat de Muspell, seconde puissance du système, dirigée par le Khan Atli Blodox.
 Tout commence à cause du contrôle de la Planète Morte, planète centrale d'un système de transport immédiat entre toutes les planètes et lieux du système de Drasill (les Chemins Blancs) et donc grand point stratégique. Depuis 150 ans, Nifhell contrôle la Planète Morte, tout en permettant à tous les vaisseaux de circuler librement. Mais le Khan veut remettre en cause cet état de fait et envoie une puissante flotte de guerre sous le commandement de son mystérieux génie stratégique, connu seulement sous le surnom de "La Pieuvre", s'emparer de la Planète Morte, dont la garnison est sous les ordres du Commandant Brinx Vobranx, qui a juste le temps de prévenir l'Empire de l'offensive.
